--- a/TestData/T1232_NBCFormSubmitforReview6.xlsx
+++ b/TestData/T1232_NBCFormSubmitforReview6.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20389"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20393"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sgoyal0427\source\repos\SalesForce_Project\TestData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B9F211EB-5A01-4ADC-918F-93F3F0725600}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F3D7FDC8-FA10-42C9-ACC8-C18FDFEF0F35}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="25590" windowHeight="8565" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -496,9 +496,6 @@
     <t>valUpdRetainer</t>
   </si>
   <si>
-    <t>120000.0</t>
-  </si>
-  <si>
     <t>valUpdRetainerCred</t>
   </si>
   <si>
@@ -548,6 +545,9 @@
   </si>
   <si>
     <t>Public Sensitivity: Please answer the Public M&amp;A question.</t>
+  </si>
+  <si>
+    <t>100.0</t>
   </si>
 </sst>
 </file>
@@ -1286,8 +1286,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:BO33"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AR1" workbookViewId="0">
-      <selection activeCell="BI2" sqref="BI2"/>
+    <sheetView tabSelected="1" topLeftCell="AS1" workbookViewId="0">
+      <selection activeCell="BL2" sqref="BL2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1536,18 +1536,18 @@
         <v>154</v>
       </c>
       <c r="BM1" s="11" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="BN1" s="11" t="s">
+        <v>157</v>
+      </c>
+      <c r="BO1" s="11" t="s">
         <v>158</v>
-      </c>
-      <c r="BO1" s="11" t="s">
-        <v>159</v>
       </c>
     </row>
     <row r="2" spans="1:67" ht="216.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="8" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B2" s="10" t="s">
         <v>9</v>
@@ -1643,34 +1643,34 @@
         <v>91</v>
       </c>
       <c r="AG2" s="9" t="s">
+        <v>160</v>
+      </c>
+      <c r="AH2" s="9" t="s">
         <v>161</v>
       </c>
-      <c r="AH2" s="9" t="s">
+      <c r="AI2" s="9" t="s">
         <v>162</v>
       </c>
-      <c r="AI2" s="9" t="s">
+      <c r="AJ2" s="9" t="s">
+        <v>161</v>
+      </c>
+      <c r="AK2" s="9" t="s">
         <v>163</v>
       </c>
-      <c r="AJ2" s="9" t="s">
-        <v>162</v>
-      </c>
-      <c r="AK2" s="9" t="s">
+      <c r="AL2" s="9" t="s">
         <v>164</v>
       </c>
-      <c r="AL2" s="9" t="s">
+      <c r="AM2" s="9" t="s">
         <v>165</v>
       </c>
-      <c r="AM2" s="9" t="s">
+      <c r="AN2" s="9" t="s">
         <v>166</v>
       </c>
-      <c r="AN2" s="9" t="s">
+      <c r="AO2" s="9" t="s">
         <v>167</v>
       </c>
-      <c r="AO2" s="9" t="s">
+      <c r="AP2" s="9" t="s">
         <v>168</v>
-      </c>
-      <c r="AP2" s="9" t="s">
-        <v>169</v>
       </c>
       <c r="AQ2" s="9" t="s">
         <v>119</v>
@@ -1679,7 +1679,7 @@
         <v>118</v>
       </c>
       <c r="AS2" s="9" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="AT2" s="9" t="s">
         <v>121</v>
@@ -1703,7 +1703,7 @@
         <v>134</v>
       </c>
       <c r="BA2" s="9" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="BB2" s="9" t="s">
         <v>138</v>
@@ -1721,25 +1721,25 @@
         <v>143</v>
       </c>
       <c r="BG2" s="9" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="BH2" s="9" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="BI2" s="9" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="BJ2" s="9" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="BK2" s="9" t="s">
         <v>149</v>
       </c>
       <c r="BL2" s="5" t="s">
-        <v>155</v>
+        <v>172</v>
       </c>
       <c r="BM2" s="5" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="BN2" s="10">
         <v>50</v>

--- a/TestData/T1232_NBCFormSubmitforReview6.xlsx
+++ b/TestData/T1232_NBCFormSubmitforReview6.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20393"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28227"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sgoyal0427\source\repos\SalesForce_Project\TestData\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SGoyal0427\source\repos\SF_Automation\TestData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F3D7FDC8-FA10-42C9-ACC8-C18FDFEF0F35}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{22AE455C-D0AF-496E-B39E-5ECAA0671B9A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25590" windowHeight="8565" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="AddOpportunity" sheetId="1" r:id="rId1"/>
@@ -55,9 +55,6 @@
     <t>BUS - Business Services</t>
   </si>
   <si>
-    <t>Dealership &amp; Rental Services</t>
-  </si>
-  <si>
     <t>No</t>
   </si>
   <si>
@@ -548,13 +545,16 @@
   </si>
   <si>
     <t>100.0</t>
+  </si>
+  <si>
+    <t>Cybersecurity Services</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -575,6 +575,12 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <color rgb="FF181818"/>
+      <name val="Segoe UI"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -597,11 +603,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
@@ -628,6 +632,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -910,207 +915,204 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AB2"/>
   <sheetViews>
-    <sheetView topLeftCell="J1" workbookViewId="0">
-      <selection activeCell="P2" sqref="P2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="2" width="18.5703125" style="3" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.28515625" style="3" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="20" style="3" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="24.28515625" style="3" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.5703125" style="3" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="15.7109375" style="3" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="11.28515625" style="3" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="13.28515625" style="3" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.7109375" style="3" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="12.5703125" style="3" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="16" style="3" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.7109375" style="3" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="8.85546875" style="3"/>
-    <col min="15" max="17" width="14.5703125" style="6" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.85546875" style="3" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="16.42578125" style="3" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.5703125" style="6" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="21" style="3" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="14.28515625" style="3" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="27" style="3" bestFit="1" customWidth="1"/>
-    <col min="24" max="25" width="8.85546875" style="3"/>
-    <col min="26" max="26" width="11.28515625" style="3" customWidth="1"/>
-    <col min="27" max="16384" width="8.85546875" style="3"/>
+    <col min="1" max="2" width="18.5546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="20" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="24.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.5546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="15.6640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="13.33203125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.6640625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="12.5546875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="16" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.6640625" bestFit="1" customWidth="1"/>
+    <col min="15" max="17" width="14.5546875" style="4" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.88671875" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="16.44140625" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.5546875" style="4" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="21" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.33203125" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="27" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="11.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="H1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="I1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="J1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="O1" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="P1" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q1" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="T1" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="V1" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="W1" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="X1" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="Y1" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="Z1" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="AA1" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="AB1" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="2" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>92</v>
+      </c>
+      <c r="B2" t="s">
+        <v>92</v>
+      </c>
+      <c r="C2" t="s">
+        <v>93</v>
+      </c>
+      <c r="D2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2" s="12" t="s">
+        <v>172</v>
+      </c>
+      <c r="F2" t="s">
+        <v>8</v>
+      </c>
+      <c r="G2" t="s">
+        <v>8</v>
+      </c>
+      <c r="H2" t="s">
         <v>11</v>
       </c>
-      <c r="J1" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="K1" s="2" t="s">
+      <c r="I2" t="s">
+        <v>8</v>
+      </c>
+      <c r="J2" t="s">
+        <v>8</v>
+      </c>
+      <c r="K2" t="s">
         <v>14</v>
       </c>
-      <c r="L1" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="M1" s="2" t="s">
+      <c r="L2" t="s">
+        <v>91</v>
+      </c>
+      <c r="M2" t="s">
         <v>17</v>
       </c>
-      <c r="N1" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="O1" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="P1" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="Q1" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="R1" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="S1" s="2" t="s">
+      <c r="N2" t="s">
+        <v>104</v>
+      </c>
+      <c r="O2" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="P2" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q2" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="R2" t="s">
         <v>25</v>
       </c>
-      <c r="T1" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="U1" s="2" t="s">
+      <c r="S2" t="s">
+        <v>25</v>
+      </c>
+      <c r="T2" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="U2" t="s">
         <v>28</v>
       </c>
-      <c r="V1" s="2" t="s">
+      <c r="V2" t="s">
         <v>30</v>
       </c>
-      <c r="W1" s="2" t="s">
+      <c r="W2" t="s">
         <v>32</v>
       </c>
-      <c r="X1" s="2" t="s">
+      <c r="X2" t="s">
         <v>34</v>
       </c>
-      <c r="Y1" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="Z1" s="2" t="s">
+      <c r="Y2" t="s">
+        <v>48</v>
+      </c>
+      <c r="Z2" t="s">
         <v>43</v>
       </c>
-      <c r="AA1" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="AB1" s="2" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="2" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A2" s="3" t="s">
-        <v>93</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>93</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>94</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="E2" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="F2" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="G2" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="H2" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="I2" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="J2" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="K2" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="L2" s="3" t="s">
-        <v>92</v>
-      </c>
-      <c r="M2" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="N2" s="3" t="s">
-        <v>105</v>
-      </c>
-      <c r="O2" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="P2" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="Q2" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="R2" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="S2" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="T2" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="U2" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="V2" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="W2" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="X2" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="Y2" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="Z2" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="AA2" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="AB2" s="5" t="s">
-        <v>38</v>
+      <c r="AA2" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="AB2" s="3" t="s">
+        <v>37</v>
       </c>
     </row>
   </sheetData>
@@ -1127,36 +1129,36 @@
       <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="19.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="19.33203125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="17" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>104</v>
+      </c>
+      <c r="B2" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
         <v>102</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>105</v>
-      </c>
-      <c r="B2" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>103</v>
       </c>
     </row>
   </sheetData>
@@ -1172,66 +1174,66 @@
       <selection activeCell="E24" sqref="E24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="9.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="16.140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.85546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.85546875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9.85546875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.88671875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.88671875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.88671875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.88671875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>37</v>
-      </c>
       <c r="C1" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D1" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="G1" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="H1" s="1" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>94</v>
+      </c>
+      <c r="B2" t="s">
+        <v>39</v>
+      </c>
+      <c r="C2" t="s">
+        <v>53</v>
+      </c>
+      <c r="D2" t="s">
         <v>45</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>95</v>
-      </c>
-      <c r="B2" t="s">
-        <v>40</v>
-      </c>
-      <c r="C2" t="s">
-        <v>54</v>
-      </c>
-      <c r="D2" t="s">
-        <v>46</v>
       </c>
       <c r="E2" t="s">
         <v>0</v>
       </c>
       <c r="F2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="G2" t="s">
         <v>0</v>
       </c>
       <c r="H2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
   </sheetData>
@@ -1248,33 +1250,33 @@
       <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="18" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.44140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="C1" s="1" t="s">
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
         <v>98</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+      <c r="B2" t="s">
         <v>99</v>
       </c>
-      <c r="B2" t="s">
+      <c r="C2" t="s">
         <v>100</v>
-      </c>
-      <c r="C2" t="s">
-        <v>101</v>
       </c>
     </row>
   </sheetData>
@@ -1286,560 +1288,560 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:BO33"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AS1" workbookViewId="0">
+    <sheetView topLeftCell="AS1" workbookViewId="0">
       <selection activeCell="BL2" sqref="BL2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="64.140625" style="10" customWidth="1"/>
-    <col min="2" max="2" width="14.85546875" style="10" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.7109375" style="10" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.5703125" style="10" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.85546875" style="10" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.140625" style="10" customWidth="1"/>
-    <col min="7" max="7" width="8.85546875" style="10"/>
-    <col min="8" max="8" width="12.28515625" style="10" bestFit="1" customWidth="1"/>
-    <col min="9" max="12" width="8.85546875" style="10"/>
-    <col min="13" max="13" width="10.28515625" style="10" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="8.85546875" style="5"/>
-    <col min="15" max="16" width="8.85546875" style="10"/>
-    <col min="17" max="17" width="10.42578125" style="10" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="29.5703125" style="10" bestFit="1" customWidth="1"/>
-    <col min="19" max="20" width="8.85546875" style="10"/>
-    <col min="21" max="21" width="9.85546875" style="10" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="8.85546875" style="10"/>
-    <col min="23" max="23" width="13.7109375" style="10" bestFit="1" customWidth="1"/>
-    <col min="24" max="30" width="8.85546875" style="10"/>
-    <col min="31" max="31" width="10.5703125" style="10" customWidth="1"/>
-    <col min="32" max="32" width="32.42578125" style="10" customWidth="1"/>
-    <col min="33" max="33" width="17.42578125" style="10" customWidth="1"/>
-    <col min="34" max="34" width="15.140625" style="9" bestFit="1" customWidth="1"/>
-    <col min="35" max="35" width="16.140625" style="10" bestFit="1" customWidth="1"/>
-    <col min="36" max="36" width="15.5703125" style="9" customWidth="1"/>
-    <col min="37" max="38" width="13.28515625" style="10" bestFit="1" customWidth="1"/>
-    <col min="39" max="39" width="13.7109375" style="10" bestFit="1" customWidth="1"/>
-    <col min="40" max="40" width="12.7109375" style="10" bestFit="1" customWidth="1"/>
-    <col min="41" max="41" width="11.140625" style="10" bestFit="1" customWidth="1"/>
-    <col min="42" max="42" width="15.5703125" style="10" bestFit="1" customWidth="1"/>
-    <col min="43" max="43" width="12.28515625" style="10" bestFit="1" customWidth="1"/>
-    <col min="44" max="45" width="13.5703125" style="10" bestFit="1" customWidth="1"/>
-    <col min="46" max="46" width="14.7109375" style="10" customWidth="1"/>
-    <col min="47" max="47" width="11.42578125" style="10" bestFit="1" customWidth="1"/>
-    <col min="48" max="48" width="14.85546875" style="10" bestFit="1" customWidth="1"/>
-    <col min="49" max="49" width="11.140625" style="10" bestFit="1" customWidth="1"/>
-    <col min="50" max="50" width="10.28515625" style="10" bestFit="1" customWidth="1"/>
-    <col min="51" max="51" width="12.42578125" style="10" bestFit="1" customWidth="1"/>
-    <col min="52" max="52" width="11.140625" style="10" bestFit="1" customWidth="1"/>
-    <col min="53" max="53" width="10.85546875" style="10" bestFit="1" customWidth="1"/>
-    <col min="54" max="54" width="10.7109375" style="10" bestFit="1" customWidth="1"/>
-    <col min="55" max="55" width="17.28515625" style="10" bestFit="1" customWidth="1"/>
-    <col min="56" max="56" width="8.85546875" style="10"/>
-    <col min="57" max="57" width="10.85546875" style="10" bestFit="1" customWidth="1"/>
-    <col min="58" max="58" width="11.140625" style="10" bestFit="1" customWidth="1"/>
-    <col min="59" max="63" width="8.85546875" style="10"/>
-    <col min="64" max="65" width="14.140625" style="10" bestFit="1" customWidth="1"/>
-    <col min="66" max="16384" width="8.85546875" style="10"/>
+    <col min="1" max="1" width="64.109375" style="8" customWidth="1"/>
+    <col min="2" max="2" width="14.88671875" style="8" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.6640625" style="8" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.5546875" style="8" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.88671875" style="8" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.109375" style="8" customWidth="1"/>
+    <col min="7" max="7" width="8.88671875" style="8"/>
+    <col min="8" max="8" width="12.33203125" style="8" bestFit="1" customWidth="1"/>
+    <col min="9" max="12" width="8.88671875" style="8"/>
+    <col min="13" max="13" width="10.33203125" style="8" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="8.88671875" style="3"/>
+    <col min="15" max="16" width="8.88671875" style="8"/>
+    <col min="17" max="17" width="10.44140625" style="8" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="29.5546875" style="8" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="8.88671875" style="8"/>
+    <col min="21" max="21" width="9.88671875" style="8" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="8.88671875" style="8"/>
+    <col min="23" max="23" width="13.6640625" style="8" bestFit="1" customWidth="1"/>
+    <col min="24" max="30" width="8.88671875" style="8"/>
+    <col min="31" max="31" width="10.5546875" style="8" customWidth="1"/>
+    <col min="32" max="32" width="32.44140625" style="8" customWidth="1"/>
+    <col min="33" max="33" width="17.44140625" style="8" customWidth="1"/>
+    <col min="34" max="34" width="15.109375" style="7" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="16.109375" style="8" bestFit="1" customWidth="1"/>
+    <col min="36" max="36" width="15.5546875" style="7" customWidth="1"/>
+    <col min="37" max="38" width="13.33203125" style="8" bestFit="1" customWidth="1"/>
+    <col min="39" max="39" width="13.6640625" style="8" bestFit="1" customWidth="1"/>
+    <col min="40" max="40" width="12.6640625" style="8" bestFit="1" customWidth="1"/>
+    <col min="41" max="41" width="11.109375" style="8" bestFit="1" customWidth="1"/>
+    <col min="42" max="42" width="15.5546875" style="8" bestFit="1" customWidth="1"/>
+    <col min="43" max="43" width="12.33203125" style="8" bestFit="1" customWidth="1"/>
+    <col min="44" max="45" width="13.5546875" style="8" bestFit="1" customWidth="1"/>
+    <col min="46" max="46" width="14.6640625" style="8" customWidth="1"/>
+    <col min="47" max="47" width="11.44140625" style="8" bestFit="1" customWidth="1"/>
+    <col min="48" max="48" width="14.88671875" style="8" bestFit="1" customWidth="1"/>
+    <col min="49" max="49" width="11.109375" style="8" bestFit="1" customWidth="1"/>
+    <col min="50" max="50" width="10.33203125" style="8" bestFit="1" customWidth="1"/>
+    <col min="51" max="51" width="12.44140625" style="8" bestFit="1" customWidth="1"/>
+    <col min="52" max="52" width="11.109375" style="8" bestFit="1" customWidth="1"/>
+    <col min="53" max="53" width="10.88671875" style="8" bestFit="1" customWidth="1"/>
+    <col min="54" max="54" width="10.6640625" style="8" bestFit="1" customWidth="1"/>
+    <col min="55" max="55" width="17.33203125" style="8" bestFit="1" customWidth="1"/>
+    <col min="56" max="56" width="8.88671875" style="8"/>
+    <col min="57" max="57" width="10.88671875" style="8" bestFit="1" customWidth="1"/>
+    <col min="58" max="58" width="11.109375" style="8" bestFit="1" customWidth="1"/>
+    <col min="59" max="63" width="8.88671875" style="8"/>
+    <col min="64" max="65" width="14.109375" style="8" bestFit="1" customWidth="1"/>
+    <col min="66" max="16384" width="8.88671875" style="8"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:67" s="11" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A1" s="11" t="s">
+    <row r="1" spans="1:67" s="9" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="B1" s="9" t="s">
         <v>57</v>
       </c>
-      <c r="B1" s="11" t="s">
+      <c r="C1" s="9" t="s">
         <v>58</v>
       </c>
-      <c r="C1" s="11" t="s">
+      <c r="D1" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="E1" s="9" t="s">
+        <v>61</v>
+      </c>
+      <c r="F1" s="9" t="s">
+        <v>62</v>
+      </c>
+      <c r="G1" s="9" t="s">
+        <v>63</v>
+      </c>
+      <c r="H1" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="I1" s="9" t="s">
+        <v>65</v>
+      </c>
+      <c r="J1" s="9" t="s">
+        <v>66</v>
+      </c>
+      <c r="K1" s="9" t="s">
+        <v>67</v>
+      </c>
+      <c r="L1" s="9" t="s">
+        <v>68</v>
+      </c>
+      <c r="M1" s="9" t="s">
+        <v>69</v>
+      </c>
+      <c r="N1" s="10" t="s">
+        <v>70</v>
+      </c>
+      <c r="O1" s="9" t="s">
+        <v>71</v>
+      </c>
+      <c r="P1" s="9" t="s">
+        <v>72</v>
+      </c>
+      <c r="Q1" s="9" t="s">
+        <v>83</v>
+      </c>
+      <c r="R1" s="9" t="s">
+        <v>73</v>
+      </c>
+      <c r="S1" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="T1" s="9" t="s">
+        <v>74</v>
+      </c>
+      <c r="U1" s="9" t="s">
+        <v>77</v>
+      </c>
+      <c r="V1" s="9" t="s">
+        <v>78</v>
+      </c>
+      <c r="W1" s="9" t="s">
+        <v>79</v>
+      </c>
+      <c r="X1" s="9" t="s">
+        <v>80</v>
+      </c>
+      <c r="Y1" s="9" t="s">
+        <v>81</v>
+      </c>
+      <c r="Z1" s="9" t="s">
+        <v>82</v>
+      </c>
+      <c r="AA1" s="9" t="s">
+        <v>84</v>
+      </c>
+      <c r="AB1" s="9" t="s">
+        <v>85</v>
+      </c>
+      <c r="AC1" s="9" t="s">
+        <v>86</v>
+      </c>
+      <c r="AD1" s="9" t="s">
+        <v>87</v>
+      </c>
+      <c r="AE1" s="9" t="s">
+        <v>88</v>
+      </c>
+      <c r="AF1" s="9" t="s">
+        <v>89</v>
+      </c>
+      <c r="AG1" s="9" t="s">
+        <v>105</v>
+      </c>
+      <c r="AH1" s="11" t="s">
+        <v>106</v>
+      </c>
+      <c r="AI1" s="9" t="s">
+        <v>107</v>
+      </c>
+      <c r="AJ1" s="11" t="s">
+        <v>108</v>
+      </c>
+      <c r="AK1" s="9" t="s">
+        <v>109</v>
+      </c>
+      <c r="AL1" s="9" t="s">
+        <v>110</v>
+      </c>
+      <c r="AM1" s="9" t="s">
+        <v>111</v>
+      </c>
+      <c r="AN1" s="9" t="s">
+        <v>112</v>
+      </c>
+      <c r="AO1" s="9" t="s">
+        <v>114</v>
+      </c>
+      <c r="AP1" s="9" t="s">
+        <v>113</v>
+      </c>
+      <c r="AQ1" s="9" t="s">
+        <v>115</v>
+      </c>
+      <c r="AR1" s="9" t="s">
+        <v>116</v>
+      </c>
+      <c r="AS1" s="9" t="s">
+        <v>119</v>
+      </c>
+      <c r="AT1" s="9" t="s">
+        <v>121</v>
+      </c>
+      <c r="AU1" s="9" t="s">
+        <v>122</v>
+      </c>
+      <c r="AV1" s="9" t="s">
+        <v>123</v>
+      </c>
+      <c r="AW1" s="9" t="s">
+        <v>124</v>
+      </c>
+      <c r="AX1" s="9" t="s">
+        <v>125</v>
+      </c>
+      <c r="AY1" s="9" t="s">
+        <v>130</v>
+      </c>
+      <c r="AZ1" s="9" t="s">
+        <v>132</v>
+      </c>
+      <c r="BA1" s="9" t="s">
+        <v>134</v>
+      </c>
+      <c r="BB1" s="9" t="s">
+        <v>135</v>
+      </c>
+      <c r="BC1" s="9" t="s">
+        <v>136</v>
+      </c>
+      <c r="BD1" s="9" t="s">
+        <v>139</v>
+      </c>
+      <c r="BE1" s="9" t="s">
+        <v>140</v>
+      </c>
+      <c r="BF1" s="9" t="s">
+        <v>143</v>
+      </c>
+      <c r="BG1" s="9" t="s">
+        <v>144</v>
+      </c>
+      <c r="BH1" s="9" t="s">
+        <v>145</v>
+      </c>
+      <c r="BI1" s="9" t="s">
+        <v>146</v>
+      </c>
+      <c r="BJ1" s="9" t="s">
+        <v>147</v>
+      </c>
+      <c r="BK1" s="9" t="s">
+        <v>149</v>
+      </c>
+      <c r="BL1" s="9" t="s">
+        <v>153</v>
+      </c>
+      <c r="BM1" s="9" t="s">
+        <v>154</v>
+      </c>
+      <c r="BN1" s="9" t="s">
+        <v>156</v>
+      </c>
+      <c r="BO1" s="9" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="2" spans="1:67" ht="216.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="6" t="s">
+        <v>158</v>
+      </c>
+      <c r="B2" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2" s="8" t="s">
         <v>59</v>
       </c>
-      <c r="D1" s="11" t="s">
-        <v>61</v>
-      </c>
-      <c r="E1" s="11" t="s">
-        <v>62</v>
-      </c>
-      <c r="F1" s="11" t="s">
-        <v>63</v>
-      </c>
-      <c r="G1" s="11" t="s">
-        <v>64</v>
-      </c>
-      <c r="H1" s="11" t="s">
-        <v>65</v>
-      </c>
-      <c r="I1" s="11" t="s">
-        <v>66</v>
-      </c>
-      <c r="J1" s="11" t="s">
-        <v>67</v>
-      </c>
-      <c r="K1" s="11" t="s">
-        <v>68</v>
-      </c>
-      <c r="L1" s="11" t="s">
-        <v>69</v>
-      </c>
-      <c r="M1" s="11" t="s">
-        <v>70</v>
-      </c>
-      <c r="N1" s="12" t="s">
-        <v>71</v>
-      </c>
-      <c r="O1" s="11" t="s">
-        <v>72</v>
-      </c>
-      <c r="P1" s="11" t="s">
-        <v>73</v>
-      </c>
-      <c r="Q1" s="11" t="s">
-        <v>84</v>
-      </c>
-      <c r="R1" s="11" t="s">
-        <v>74</v>
-      </c>
-      <c r="S1" s="11" t="s">
-        <v>0</v>
-      </c>
-      <c r="T1" s="11" t="s">
+      <c r="D2" s="8" t="s">
+        <v>151</v>
+      </c>
+      <c r="E2" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="F2" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="G2" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="H2" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="I2" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="J2" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="K2" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="L2" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="M2" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="N2" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="O2" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="P2" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q2" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="R2" s="8" t="s">
         <v>75</v>
       </c>
-      <c r="U1" s="11" t="s">
-        <v>78</v>
-      </c>
-      <c r="V1" s="11" t="s">
-        <v>79</v>
-      </c>
-      <c r="W1" s="11" t="s">
-        <v>80</v>
-      </c>
-      <c r="X1" s="11" t="s">
-        <v>81</v>
-      </c>
-      <c r="Y1" s="11" t="s">
-        <v>82</v>
-      </c>
-      <c r="Z1" s="11" t="s">
-        <v>83</v>
-      </c>
-      <c r="AA1" s="11" t="s">
-        <v>85</v>
-      </c>
-      <c r="AB1" s="11" t="s">
-        <v>86</v>
-      </c>
-      <c r="AC1" s="11" t="s">
-        <v>87</v>
-      </c>
-      <c r="AD1" s="11" t="s">
-        <v>88</v>
-      </c>
-      <c r="AE1" s="11" t="s">
-        <v>89</v>
-      </c>
-      <c r="AF1" s="11" t="s">
+      <c r="S2" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="T2" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="U2" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="V2" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="W2" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="X2" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="Y2" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="Z2" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="AA2" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="AB2" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="AC2" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="AD2" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="AE2" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="AF2" s="7" t="s">
         <v>90</v>
       </c>
-      <c r="AG1" s="11" t="s">
-        <v>106</v>
-      </c>
-      <c r="AH1" s="13" t="s">
-        <v>107</v>
-      </c>
-      <c r="AI1" s="11" t="s">
-        <v>108</v>
-      </c>
-      <c r="AJ1" s="13" t="s">
-        <v>109</v>
-      </c>
-      <c r="AK1" s="11" t="s">
-        <v>110</v>
-      </c>
-      <c r="AL1" s="11" t="s">
-        <v>111</v>
-      </c>
-      <c r="AM1" s="11" t="s">
-        <v>112</v>
-      </c>
-      <c r="AN1" s="11" t="s">
-        <v>113</v>
-      </c>
-      <c r="AO1" s="11" t="s">
-        <v>115</v>
-      </c>
-      <c r="AP1" s="11" t="s">
-        <v>114</v>
-      </c>
-      <c r="AQ1" s="11" t="s">
-        <v>116</v>
-      </c>
-      <c r="AR1" s="11" t="s">
+      <c r="AG2" s="7" t="s">
+        <v>159</v>
+      </c>
+      <c r="AH2" s="7" t="s">
+        <v>160</v>
+      </c>
+      <c r="AI2" s="7" t="s">
+        <v>161</v>
+      </c>
+      <c r="AJ2" s="7" t="s">
+        <v>160</v>
+      </c>
+      <c r="AK2" s="7" t="s">
+        <v>162</v>
+      </c>
+      <c r="AL2" s="7" t="s">
+        <v>163</v>
+      </c>
+      <c r="AM2" s="7" t="s">
+        <v>164</v>
+      </c>
+      <c r="AN2" s="7" t="s">
+        <v>165</v>
+      </c>
+      <c r="AO2" s="7" t="s">
+        <v>166</v>
+      </c>
+      <c r="AP2" s="7" t="s">
+        <v>167</v>
+      </c>
+      <c r="AQ2" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="AR2" s="7" t="s">
         <v>117</v>
       </c>
-      <c r="AS1" s="11" t="s">
+      <c r="AS2" s="7" t="s">
+        <v>168</v>
+      </c>
+      <c r="AT2" s="7" t="s">
         <v>120</v>
       </c>
-      <c r="AT1" s="11" t="s">
-        <v>122</v>
-      </c>
-      <c r="AU1" s="11" t="s">
-        <v>123</v>
-      </c>
-      <c r="AV1" s="11" t="s">
-        <v>124</v>
-      </c>
-      <c r="AW1" s="11" t="s">
-        <v>125</v>
-      </c>
-      <c r="AX1" s="11" t="s">
+      <c r="AU2" s="7" t="s">
         <v>126</v>
       </c>
-      <c r="AY1" s="11" t="s">
+      <c r="AV2" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="AW2" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="AX2" s="7" t="s">
+        <v>129</v>
+      </c>
+      <c r="AY2" s="7" t="s">
         <v>131</v>
       </c>
-      <c r="AZ1" s="11" t="s">
+      <c r="AZ2" s="7" t="s">
         <v>133</v>
       </c>
-      <c r="BA1" s="11" t="s">
-        <v>135</v>
-      </c>
-      <c r="BB1" s="11" t="s">
-        <v>136</v>
-      </c>
-      <c r="BC1" s="11" t="s">
+      <c r="BA2" s="7" t="s">
+        <v>169</v>
+      </c>
+      <c r="BB2" s="7" t="s">
         <v>137</v>
       </c>
-      <c r="BD1" s="11" t="s">
-        <v>140</v>
-      </c>
-      <c r="BE1" s="11" t="s">
+      <c r="BC2" s="7" t="s">
+        <v>138</v>
+      </c>
+      <c r="BD2" s="7" t="s">
+        <v>150</v>
+      </c>
+      <c r="BE2" s="7" t="s">
         <v>141</v>
       </c>
-      <c r="BF1" s="11" t="s">
-        <v>144</v>
-      </c>
-      <c r="BG1" s="11" t="s">
-        <v>145</v>
-      </c>
-      <c r="BH1" s="11" t="s">
-        <v>146</v>
-      </c>
-      <c r="BI1" s="11" t="s">
-        <v>147</v>
-      </c>
-      <c r="BJ1" s="11" t="s">
+      <c r="BF2" s="7" t="s">
+        <v>142</v>
+      </c>
+      <c r="BG2" s="7" t="s">
+        <v>170</v>
+      </c>
+      <c r="BH2" s="7" t="s">
+        <v>170</v>
+      </c>
+      <c r="BI2" s="7" t="s">
+        <v>170</v>
+      </c>
+      <c r="BJ2" s="7" t="s">
+        <v>170</v>
+      </c>
+      <c r="BK2" s="7" t="s">
         <v>148</v>
       </c>
-      <c r="BK1" s="11" t="s">
-        <v>150</v>
-      </c>
-      <c r="BL1" s="11" t="s">
-        <v>154</v>
-      </c>
-      <c r="BM1" s="11" t="s">
+      <c r="BL2" s="3" t="s">
+        <v>171</v>
+      </c>
+      <c r="BM2" s="3" t="s">
         <v>155</v>
       </c>
-      <c r="BN1" s="11" t="s">
-        <v>157</v>
-      </c>
-      <c r="BO1" s="11" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="2" spans="1:67" ht="216.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="8" t="s">
-        <v>159</v>
-      </c>
-      <c r="B2" s="10" t="s">
-        <v>9</v>
-      </c>
-      <c r="C2" s="10" t="s">
-        <v>60</v>
-      </c>
-      <c r="D2" s="10" t="s">
-        <v>152</v>
-      </c>
-      <c r="E2" s="10" t="s">
-        <v>60</v>
-      </c>
-      <c r="F2" s="10" t="s">
-        <v>9</v>
-      </c>
-      <c r="G2" s="10" t="s">
-        <v>9</v>
-      </c>
-      <c r="H2" s="10" t="s">
-        <v>60</v>
-      </c>
-      <c r="I2" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="J2" s="10" t="s">
-        <v>77</v>
-      </c>
-      <c r="K2" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="L2" s="5" t="s">
-        <v>60</v>
-      </c>
-      <c r="M2" s="10" t="s">
-        <v>60</v>
-      </c>
-      <c r="N2" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="O2" s="10" t="s">
-        <v>29</v>
-      </c>
-      <c r="P2" s="10" t="s">
-        <v>9</v>
-      </c>
-      <c r="Q2" s="10" t="s">
-        <v>9</v>
-      </c>
-      <c r="R2" s="10" t="s">
-        <v>76</v>
-      </c>
-      <c r="S2" s="10" t="s">
-        <v>9</v>
-      </c>
-      <c r="T2" s="10" t="s">
-        <v>29</v>
-      </c>
-      <c r="U2" s="10" t="s">
-        <v>9</v>
-      </c>
-      <c r="V2" s="10" t="s">
-        <v>9</v>
-      </c>
-      <c r="W2" s="10" t="s">
-        <v>29</v>
-      </c>
-      <c r="X2" s="10" t="s">
-        <v>9</v>
-      </c>
-      <c r="Y2" s="10" t="s">
-        <v>29</v>
-      </c>
-      <c r="Z2" s="10" t="s">
-        <v>9</v>
-      </c>
-      <c r="AA2" s="10" t="s">
-        <v>9</v>
-      </c>
-      <c r="AB2" s="10" t="s">
-        <v>9</v>
-      </c>
-      <c r="AC2" s="10" t="s">
-        <v>9</v>
-      </c>
-      <c r="AD2" s="10" t="s">
-        <v>9</v>
-      </c>
-      <c r="AE2" s="10" t="s">
-        <v>9</v>
-      </c>
-      <c r="AF2" s="9" t="s">
-        <v>91</v>
-      </c>
-      <c r="AG2" s="9" t="s">
-        <v>160</v>
-      </c>
-      <c r="AH2" s="9" t="s">
-        <v>161</v>
-      </c>
-      <c r="AI2" s="9" t="s">
-        <v>162</v>
-      </c>
-      <c r="AJ2" s="9" t="s">
-        <v>161</v>
-      </c>
-      <c r="AK2" s="9" t="s">
-        <v>163</v>
-      </c>
-      <c r="AL2" s="9" t="s">
-        <v>164</v>
-      </c>
-      <c r="AM2" s="9" t="s">
-        <v>165</v>
-      </c>
-      <c r="AN2" s="9" t="s">
-        <v>166</v>
-      </c>
-      <c r="AO2" s="9" t="s">
-        <v>167</v>
-      </c>
-      <c r="AP2" s="9" t="s">
-        <v>168</v>
-      </c>
-      <c r="AQ2" s="9" t="s">
-        <v>119</v>
-      </c>
-      <c r="AR2" s="9" t="s">
-        <v>118</v>
-      </c>
-      <c r="AS2" s="9" t="s">
-        <v>169</v>
-      </c>
-      <c r="AT2" s="9" t="s">
-        <v>121</v>
-      </c>
-      <c r="AU2" s="9" t="s">
-        <v>127</v>
-      </c>
-      <c r="AV2" s="9" t="s">
-        <v>128</v>
-      </c>
-      <c r="AW2" s="9" t="s">
-        <v>129</v>
-      </c>
-      <c r="AX2" s="9" t="s">
-        <v>130</v>
-      </c>
-      <c r="AY2" s="9" t="s">
-        <v>132</v>
-      </c>
-      <c r="AZ2" s="9" t="s">
-        <v>134</v>
-      </c>
-      <c r="BA2" s="9" t="s">
-        <v>170</v>
-      </c>
-      <c r="BB2" s="9" t="s">
-        <v>138</v>
-      </c>
-      <c r="BC2" s="9" t="s">
-        <v>139</v>
-      </c>
-      <c r="BD2" s="9" t="s">
-        <v>151</v>
-      </c>
-      <c r="BE2" s="9" t="s">
-        <v>142</v>
-      </c>
-      <c r="BF2" s="9" t="s">
-        <v>143</v>
-      </c>
-      <c r="BG2" s="9" t="s">
-        <v>171</v>
-      </c>
-      <c r="BH2" s="9" t="s">
-        <v>171</v>
-      </c>
-      <c r="BI2" s="9" t="s">
-        <v>171</v>
-      </c>
-      <c r="BJ2" s="9" t="s">
-        <v>171</v>
-      </c>
-      <c r="BK2" s="9" t="s">
-        <v>149</v>
-      </c>
-      <c r="BL2" s="5" t="s">
-        <v>172</v>
-      </c>
-      <c r="BM2" s="5" t="s">
-        <v>156</v>
-      </c>
-      <c r="BN2" s="10">
+      <c r="BN2" s="8">
         <v>50</v>
       </c>
-      <c r="BO2" s="10">
+      <c r="BO2" s="8">
         <v>100</v>
       </c>
     </row>
-    <row r="3" spans="1:67" x14ac:dyDescent="0.25">
-      <c r="A3" s="7"/>
-    </row>
-    <row r="4" spans="1:67" x14ac:dyDescent="0.25">
-      <c r="A4" s="7"/>
-    </row>
-    <row r="5" spans="1:67" x14ac:dyDescent="0.25">
-      <c r="A5" s="7"/>
-    </row>
-    <row r="6" spans="1:67" x14ac:dyDescent="0.25">
-      <c r="A6" s="7"/>
-    </row>
-    <row r="7" spans="1:67" x14ac:dyDescent="0.25">
-      <c r="A7" s="7"/>
-    </row>
-    <row r="8" spans="1:67" x14ac:dyDescent="0.25">
-      <c r="A8" s="7"/>
-    </row>
-    <row r="9" spans="1:67" x14ac:dyDescent="0.25">
-      <c r="A9" s="7"/>
-    </row>
-    <row r="10" spans="1:67" x14ac:dyDescent="0.25">
-      <c r="A10" s="7"/>
-    </row>
-    <row r="11" spans="1:67" x14ac:dyDescent="0.25">
-      <c r="A11" s="7"/>
-    </row>
-    <row r="12" spans="1:67" x14ac:dyDescent="0.25">
-      <c r="A12" s="7"/>
-    </row>
-    <row r="13" spans="1:67" x14ac:dyDescent="0.25">
-      <c r="A13" s="7"/>
-    </row>
-    <row r="14" spans="1:67" x14ac:dyDescent="0.25">
-      <c r="A14" s="7"/>
-    </row>
-    <row r="15" spans="1:67" x14ac:dyDescent="0.25">
-      <c r="A15" s="7"/>
-    </row>
-    <row r="16" spans="1:67" ht="22.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="7"/>
-    </row>
-    <row r="17" spans="1:1" ht="14.45" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="7"/>
-    </row>
-    <row r="18" spans="1:1" ht="14.45" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="7"/>
-    </row>
-    <row r="19" spans="1:1" ht="14.45" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="7"/>
-    </row>
-    <row r="20" spans="1:1" ht="14.45" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="7"/>
-    </row>
-    <row r="21" spans="1:1" ht="14.45" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="7"/>
-    </row>
-    <row r="22" spans="1:1" ht="14.45" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="7"/>
-    </row>
-    <row r="23" spans="1:1" ht="14.45" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="7"/>
-    </row>
-    <row r="24" spans="1:1" ht="14.45" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="7"/>
-    </row>
-    <row r="25" spans="1:1" ht="14.45" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="7"/>
-    </row>
-    <row r="26" spans="1:1" ht="14.45" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="7"/>
-    </row>
-    <row r="27" spans="1:1" ht="14.45" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="7"/>
-    </row>
-    <row r="28" spans="1:1" ht="14.45" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="7"/>
-    </row>
-    <row r="29" spans="1:1" ht="14.45" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="7"/>
-    </row>
-    <row r="30" spans="1:1" ht="14.45" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="7"/>
-    </row>
-    <row r="31" spans="1:1" ht="14.45" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="7"/>
-    </row>
-    <row r="32" spans="1:1" ht="14.45" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="7"/>
-    </row>
-    <row r="33" spans="1:1" ht="14.45" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="7"/>
+    <row r="3" spans="1:67" x14ac:dyDescent="0.3">
+      <c r="A3" s="5"/>
+    </row>
+    <row r="4" spans="1:67" x14ac:dyDescent="0.3">
+      <c r="A4" s="5"/>
+    </row>
+    <row r="5" spans="1:67" x14ac:dyDescent="0.3">
+      <c r="A5" s="5"/>
+    </row>
+    <row r="6" spans="1:67" x14ac:dyDescent="0.3">
+      <c r="A6" s="5"/>
+    </row>
+    <row r="7" spans="1:67" x14ac:dyDescent="0.3">
+      <c r="A7" s="5"/>
+    </row>
+    <row r="8" spans="1:67" x14ac:dyDescent="0.3">
+      <c r="A8" s="5"/>
+    </row>
+    <row r="9" spans="1:67" x14ac:dyDescent="0.3">
+      <c r="A9" s="5"/>
+    </row>
+    <row r="10" spans="1:67" x14ac:dyDescent="0.3">
+      <c r="A10" s="5"/>
+    </row>
+    <row r="11" spans="1:67" x14ac:dyDescent="0.3">
+      <c r="A11" s="5"/>
+    </row>
+    <row r="12" spans="1:67" x14ac:dyDescent="0.3">
+      <c r="A12" s="5"/>
+    </row>
+    <row r="13" spans="1:67" x14ac:dyDescent="0.3">
+      <c r="A13" s="5"/>
+    </row>
+    <row r="14" spans="1:67" x14ac:dyDescent="0.3">
+      <c r="A14" s="5"/>
+    </row>
+    <row r="15" spans="1:67" x14ac:dyDescent="0.3">
+      <c r="A15" s="5"/>
+    </row>
+    <row r="16" spans="1:67" ht="22.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="5"/>
+    </row>
+    <row r="17" spans="1:1" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="5"/>
+    </row>
+    <row r="18" spans="1:1" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="5"/>
+    </row>
+    <row r="19" spans="1:1" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="5"/>
+    </row>
+    <row r="20" spans="1:1" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="5"/>
+    </row>
+    <row r="21" spans="1:1" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="5"/>
+    </row>
+    <row r="22" spans="1:1" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="5"/>
+    </row>
+    <row r="23" spans="1:1" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="5"/>
+    </row>
+    <row r="24" spans="1:1" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="5"/>
+    </row>
+    <row r="25" spans="1:1" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="5"/>
+    </row>
+    <row r="26" spans="1:1" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="5"/>
+    </row>
+    <row r="27" spans="1:1" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="5"/>
+    </row>
+    <row r="28" spans="1:1" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="5"/>
+    </row>
+    <row r="29" spans="1:1" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="5"/>
+    </row>
+    <row r="30" spans="1:1" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A30" s="5"/>
+    </row>
+    <row r="31" spans="1:1" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A31" s="5"/>
+    </row>
+    <row r="32" spans="1:1" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A32" s="5"/>
+    </row>
+    <row r="33" spans="1:1" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A33" s="5"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
